--- a/mcdonalds_tweets.xlsx
+++ b/mcdonalds_tweets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiza\OneDrive\Projeto2cdd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiza\OneDrive\Documentos\GitHub\Projeto-2---CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76E6542-45E0-4CE2-BFCB-40A359467DFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340E62A8-46BE-4C6D-B3DC-FE154D415653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo da Exportação" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="358">
   <si>
     <t>Este documento foi exportado do Numbers. Cada tabela foi convertida em uma planilha do Excel. Todos os outros objetos em cada folha do Numbers foram colocados em planilhas à parte. Por favor, preste atenção porque os cálculos de fórmulas podem ser diferentes no Excel.</t>
   </si>
@@ -55,16 +55,10 @@
   </si>
   <si>
     <t>moço no metrô com um saco do mcdonald's. e agora no ônibus outro com uma caixa de esfirras do habib's. e eu apenas morrendo de fome.</t>
-  </si>
-  <si>
-    <t>Negativo:</t>
   </si>
   <si>
     <t>rt @awannable: younghoon tentando falar "mcdonald's" 
 tomara que eu exploda de amor https://t.co/raezi2ob7z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positivo: </t>
   </si>
   <si>
     <t>rt @joshhduh: essa hora o mcdonald's ainda não faz big mac to muito triste</t>
@@ -1199,7 +1193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1226,6 +1220,18 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1332,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1387,6 +1393,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,6 +1488,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1501,7 +1517,81 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66C2586-DE9A-4B17-85C9-FEC3275B93C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Botão 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>450850</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1219200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D8BDBC-0E31-4FC3-BB51-D1D84C39031A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2704,7 +2794,7 @@
     </row>
     <row r="11" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2715,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2825,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:IV301"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2783,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -2792,7 +2882,7 @@
     </row>
     <row r="4" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -2803,7 +2893,7 @@
     </row>
     <row r="5" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
@@ -2814,7 +2904,7 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -2825,7 +2915,7 @@
     </row>
     <row r="7" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="14">
         <v>0</v>
@@ -2836,7 +2926,7 @@
     </row>
     <row r="8" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -2847,7 +2937,7 @@
     </row>
     <row r="9" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14">
         <v>0</v>
@@ -2858,7 +2948,7 @@
     </row>
     <row r="10" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
@@ -2869,7 +2959,7 @@
     </row>
     <row r="11" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="14">
         <v>1</v>
@@ -2891,7 +2981,7 @@
     </row>
     <row r="13" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="14">
         <v>1</v>
@@ -2902,7 +2992,7 @@
     </row>
     <row r="14" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="11">
         <v>0</v>
@@ -2913,7 +3003,7 @@
     </row>
     <row r="15" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
@@ -2924,7 +3014,7 @@
     </row>
     <row r="16" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -2935,7 +3025,7 @@
     </row>
     <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="14">
         <v>0</v>
@@ -2946,7 +3036,7 @@
     </row>
     <row r="18" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -2957,7 +3047,7 @@
     </row>
     <row r="19" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="14">
         <v>1</v>
@@ -2968,7 +3058,7 @@
     </row>
     <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -2979,7 +3069,7 @@
     </row>
     <row r="21" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="14">
         <v>0</v>
@@ -2990,7 +3080,7 @@
     </row>
     <row r="22" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="11">
         <v>0</v>
@@ -3001,7 +3091,7 @@
     </row>
     <row r="23" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -3012,7 +3102,7 @@
     </row>
     <row r="24" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
@@ -3023,7 +3113,7 @@
     </row>
     <row r="25" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="14">
         <v>1</v>
@@ -3034,7 +3124,7 @@
     </row>
     <row r="26" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
@@ -3045,7 +3135,7 @@
     </row>
     <row r="27" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="14">
         <v>0</v>
@@ -3056,7 +3146,7 @@
     </row>
     <row r="28" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="11">
         <v>1</v>
@@ -3067,7 +3157,7 @@
     </row>
     <row r="29" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
@@ -3078,7 +3168,7 @@
     </row>
     <row r="30" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="11">
         <v>0</v>
@@ -3089,7 +3179,7 @@
     </row>
     <row r="31" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="14">
         <v>1</v>
@@ -3100,7 +3190,7 @@
     </row>
     <row r="32" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="11">
         <v>0</v>
@@ -3111,7 +3201,7 @@
     </row>
     <row r="33" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="14">
         <v>1</v>
@@ -3122,7 +3212,7 @@
     </row>
     <row r="34" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="11">
         <v>1</v>
@@ -3133,7 +3223,7 @@
     </row>
     <row r="35" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="14">
         <v>1</v>
@@ -3144,7 +3234,7 @@
     </row>
     <row r="36" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="11">
         <v>0</v>
@@ -3155,7 +3245,7 @@
     </row>
     <row r="37" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="14">
         <v>0</v>
@@ -3166,7 +3256,7 @@
     </row>
     <row r="38" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="11">
         <v>1</v>
@@ -3177,7 +3267,7 @@
     </row>
     <row r="39" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="14">
         <v>0</v>
@@ -3188,7 +3278,7 @@
     </row>
     <row r="40" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="11">
         <v>1</v>
@@ -3199,7 +3289,7 @@
     </row>
     <row r="41" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="14">
         <v>1</v>
@@ -3210,7 +3300,7 @@
     </row>
     <row r="42" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="11">
         <v>1</v>
@@ -3221,7 +3311,7 @@
     </row>
     <row r="43" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="14">
         <v>1</v>
@@ -3232,7 +3322,7 @@
     </row>
     <row r="44" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="11">
         <v>0</v>
@@ -3243,7 +3333,7 @@
     </row>
     <row r="45" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="14">
         <v>1</v>
@@ -3254,7 +3344,7 @@
     </row>
     <row r="46" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="11">
         <v>0</v>
@@ -3265,7 +3355,7 @@
     </row>
     <row r="47" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="14">
         <v>1</v>
@@ -3276,7 +3366,7 @@
     </row>
     <row r="48" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="11">
         <v>1</v>
@@ -3287,7 +3377,7 @@
     </row>
     <row r="49" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="14">
         <v>1</v>
@@ -3298,7 +3388,7 @@
     </row>
     <row r="50" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" s="11">
         <v>1</v>
@@ -3309,7 +3399,7 @@
     </row>
     <row r="51" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B51" s="14">
         <v>1</v>
@@ -3320,7 +3410,7 @@
     </row>
     <row r="52" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="11">
         <v>1</v>
@@ -3331,7 +3421,7 @@
     </row>
     <row r="53" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="14">
         <v>1</v>
@@ -3342,7 +3432,7 @@
     </row>
     <row r="54" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" s="11">
         <v>1</v>
@@ -3353,7 +3443,7 @@
     </row>
     <row r="55" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" s="14">
         <v>1</v>
@@ -3364,7 +3454,7 @@
     </row>
     <row r="56" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="11">
         <v>1</v>
@@ -3375,7 +3465,7 @@
     </row>
     <row r="57" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="14">
         <v>0</v>
@@ -3386,7 +3476,7 @@
     </row>
     <row r="58" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58" s="11">
         <v>1</v>
@@ -3397,7 +3487,7 @@
     </row>
     <row r="59" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B59" s="14">
         <v>1</v>
@@ -3408,7 +3498,7 @@
     </row>
     <row r="60" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" s="11">
         <v>1</v>
@@ -3419,7 +3509,7 @@
     </row>
     <row r="61" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B61" s="14">
         <v>0</v>
@@ -3430,7 +3520,7 @@
     </row>
     <row r="62" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="11">
         <v>1</v>
@@ -3441,7 +3531,7 @@
     </row>
     <row r="63" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63" s="14">
         <v>0</v>
@@ -3452,7 +3542,7 @@
     </row>
     <row r="64" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B64" s="11">
         <v>1</v>
@@ -3463,7 +3553,7 @@
     </row>
     <row r="65" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="14">
         <v>0</v>
@@ -3474,7 +3564,7 @@
     </row>
     <row r="66" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66" s="11">
         <v>1</v>
@@ -3485,7 +3575,7 @@
     </row>
     <row r="67" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" s="14">
         <v>1</v>
@@ -3496,7 +3586,7 @@
     </row>
     <row r="68" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B68" s="11">
         <v>1</v>
@@ -3507,7 +3597,7 @@
     </row>
     <row r="69" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B69" s="14">
         <v>1</v>
@@ -3518,7 +3608,7 @@
     </row>
     <row r="70" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B70" s="11">
         <v>0</v>
@@ -3529,7 +3619,7 @@
     </row>
     <row r="71" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B71" s="14">
         <v>0</v>
@@ -3540,7 +3630,7 @@
     </row>
     <row r="72" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B72" s="11">
         <v>1</v>
@@ -3551,7 +3641,7 @@
     </row>
     <row r="73" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B73" s="14">
         <v>0</v>
@@ -3562,7 +3652,7 @@
     </row>
     <row r="74" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B74" s="11">
         <v>0</v>
@@ -3573,7 +3663,7 @@
     </row>
     <row r="75" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B75" s="14">
         <v>1</v>
@@ -3584,7 +3674,7 @@
     </row>
     <row r="76" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76" s="11">
         <v>1</v>
@@ -3595,7 +3685,7 @@
     </row>
     <row r="77" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B77" s="14">
         <v>0</v>
@@ -3606,7 +3696,7 @@
     </row>
     <row r="78" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B78" s="11">
         <v>0</v>
@@ -3628,7 +3718,7 @@
     </row>
     <row r="80" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B80" s="11">
         <v>0</v>
@@ -3639,7 +3729,7 @@
     </row>
     <row r="81" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B81" s="14">
         <v>0</v>
@@ -3650,7 +3740,7 @@
     </row>
     <row r="82" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B82" s="11">
         <v>1</v>
@@ -3661,7 +3751,7 @@
     </row>
     <row r="83" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B83" s="14">
         <v>1</v>
@@ -3672,7 +3762,7 @@
     </row>
     <row r="84" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84" s="11">
         <v>0</v>
@@ -3683,7 +3773,7 @@
     </row>
     <row r="85" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85" s="14">
         <v>0</v>
@@ -3694,7 +3784,7 @@
     </row>
     <row r="86" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="11">
         <v>0</v>
@@ -3705,7 +3795,7 @@
     </row>
     <row r="87" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" s="14">
         <v>1</v>
@@ -3716,7 +3806,7 @@
     </row>
     <row r="88" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" s="11">
         <v>1</v>
@@ -3727,7 +3817,7 @@
     </row>
     <row r="89" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B89" s="14">
         <v>0</v>
@@ -3738,7 +3828,7 @@
     </row>
     <row r="90" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" s="11">
         <v>0</v>
@@ -3749,7 +3839,7 @@
     </row>
     <row r="91" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B91" s="14">
         <v>0</v>
@@ -3760,7 +3850,7 @@
     </row>
     <row r="92" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B92" s="11">
         <v>1</v>
@@ -3771,7 +3861,7 @@
     </row>
     <row r="93" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B93" s="14">
         <v>1</v>
@@ -3782,7 +3872,7 @@
     </row>
     <row r="94" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B94" s="11">
         <v>1</v>
@@ -3793,7 +3883,7 @@
     </row>
     <row r="95" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B95" s="14">
         <v>1</v>
@@ -3804,7 +3894,7 @@
     </row>
     <row r="96" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B96" s="11">
         <v>1</v>
@@ -3815,7 +3905,7 @@
     </row>
     <row r="97" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B97" s="14">
         <v>1</v>
@@ -3826,7 +3916,7 @@
     </row>
     <row r="98" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98" s="11">
         <v>0</v>
@@ -3837,7 +3927,7 @@
     </row>
     <row r="99" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B99" s="14">
         <v>0</v>
@@ -3848,7 +3938,7 @@
     </row>
     <row r="100" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B100" s="11">
         <v>1</v>
@@ -3859,7 +3949,7 @@
     </row>
     <row r="101" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B101" s="14">
         <v>1</v>
@@ -3870,7 +3960,7 @@
     </row>
     <row r="102" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B102" s="11">
         <v>0</v>
@@ -3881,7 +3971,7 @@
     </row>
     <row r="103" spans="1:5" ht="133" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B103" s="14">
         <v>0</v>
@@ -3892,7 +3982,7 @@
     </row>
     <row r="104" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B104" s="11">
         <v>0</v>
@@ -3903,7 +3993,7 @@
     </row>
     <row r="105" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B105" s="14">
         <v>1</v>
@@ -3914,7 +4004,7 @@
     </row>
     <row r="106" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B106" s="11">
         <v>0</v>
@@ -3925,7 +4015,7 @@
     </row>
     <row r="107" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B107" s="14">
         <v>1</v>
@@ -3936,7 +4026,7 @@
     </row>
     <row r="108" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B108" s="11">
         <v>1</v>
@@ -3947,7 +4037,7 @@
     </row>
     <row r="109" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B109" s="14">
         <v>0</v>
@@ -3958,7 +4048,7 @@
     </row>
     <row r="110" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="11">
         <v>0</v>
@@ -3969,7 +4059,7 @@
     </row>
     <row r="111" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B111" s="14">
         <v>1</v>
@@ -3980,7 +4070,7 @@
     </row>
     <row r="112" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B112" s="11">
         <v>0</v>
@@ -3991,7 +4081,7 @@
     </row>
     <row r="113" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B113" s="14">
         <v>1</v>
@@ -4002,7 +4092,7 @@
     </row>
     <row r="114" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B114" s="11">
         <v>1</v>
@@ -4013,7 +4103,7 @@
     </row>
     <row r="115" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B115" s="14">
         <v>1</v>
@@ -4024,7 +4114,7 @@
     </row>
     <row r="116" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B116" s="11">
         <v>1</v>
@@ -4035,7 +4125,7 @@
     </row>
     <row r="117" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B117" s="14">
         <v>1</v>
@@ -4046,7 +4136,7 @@
     </row>
     <row r="118" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B118" s="11">
         <v>0</v>
@@ -4057,7 +4147,7 @@
     </row>
     <row r="119" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B119" s="14">
         <v>1</v>
@@ -4068,7 +4158,7 @@
     </row>
     <row r="120" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B120" s="11">
         <v>1</v>
@@ -4079,7 +4169,7 @@
     </row>
     <row r="121" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B121" s="14">
         <v>0</v>
@@ -4090,7 +4180,7 @@
     </row>
     <row r="122" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B122" s="11">
         <v>1</v>
@@ -4101,7 +4191,7 @@
     </row>
     <row r="123" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B123" s="14">
         <v>1</v>
@@ -4112,7 +4202,7 @@
     </row>
     <row r="124" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B124" s="11">
         <v>1</v>
@@ -4123,7 +4213,7 @@
     </row>
     <row r="125" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B125" s="14">
         <v>1</v>
@@ -4134,7 +4224,7 @@
     </row>
     <row r="126" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B126" s="11">
         <v>1</v>
@@ -4145,7 +4235,7 @@
     </row>
     <row r="127" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B127" s="14">
         <v>0</v>
@@ -4156,7 +4246,7 @@
     </row>
     <row r="128" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B128" s="11">
         <v>0</v>
@@ -4167,7 +4257,7 @@
     </row>
     <row r="129" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B129" s="14">
         <v>1</v>
@@ -4178,7 +4268,7 @@
     </row>
     <row r="130" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B130" s="11">
         <v>0</v>
@@ -4189,7 +4279,7 @@
     </row>
     <row r="131" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B131" s="14">
         <v>1</v>
@@ -4200,7 +4290,7 @@
     </row>
     <row r="132" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B132" s="11">
         <v>1</v>
@@ -4211,7 +4301,7 @@
     </row>
     <row r="133" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B133" s="14">
         <v>1</v>
@@ -4222,7 +4312,7 @@
     </row>
     <row r="134" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B134" s="11">
         <v>1</v>
@@ -4233,7 +4323,7 @@
     </row>
     <row r="135" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B135" s="14">
         <v>1</v>
@@ -4244,7 +4334,7 @@
     </row>
     <row r="136" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B136" s="11">
         <v>1</v>
@@ -4255,7 +4345,7 @@
     </row>
     <row r="137" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B137" s="14">
         <v>0</v>
@@ -4266,7 +4356,7 @@
     </row>
     <row r="138" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B138" s="11">
         <v>1</v>
@@ -4277,7 +4367,7 @@
     </row>
     <row r="139" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B139" s="14">
         <v>0</v>
@@ -4288,7 +4378,7 @@
     </row>
     <row r="140" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B140" s="11">
         <v>0</v>
@@ -4299,7 +4389,7 @@
     </row>
     <row r="141" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B141" s="14">
         <v>1</v>
@@ -4310,7 +4400,7 @@
     </row>
     <row r="142" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B142" s="11">
         <v>1</v>
@@ -4321,7 +4411,7 @@
     </row>
     <row r="143" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B143" s="14">
         <v>1</v>
@@ -4332,7 +4422,7 @@
     </row>
     <row r="144" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B144" s="11">
         <v>1</v>
@@ -4343,7 +4433,7 @@
     </row>
     <row r="145" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B145" s="14">
         <v>1</v>
@@ -4354,7 +4444,7 @@
     </row>
     <row r="146" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B146" s="11">
         <v>1</v>
@@ -4365,7 +4455,7 @@
     </row>
     <row r="147" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B147" s="14">
         <v>0</v>
@@ -4376,7 +4466,7 @@
     </row>
     <row r="148" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B148" s="11">
         <v>1</v>
@@ -4387,7 +4477,7 @@
     </row>
     <row r="149" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B149" s="14">
         <v>1</v>
@@ -4398,7 +4488,7 @@
     </row>
     <row r="150" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B150" s="11">
         <v>0</v>
@@ -4409,7 +4499,7 @@
     </row>
     <row r="151" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B151" s="14">
         <v>1</v>
@@ -4420,7 +4510,7 @@
     </row>
     <row r="152" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B152" s="11">
         <v>0</v>
@@ -4431,7 +4521,7 @@
     </row>
     <row r="153" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B153" s="14">
         <v>0</v>
@@ -4442,7 +4532,7 @@
     </row>
     <row r="154" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B154" s="11">
         <v>0</v>
@@ -4453,7 +4543,7 @@
     </row>
     <row r="155" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B155" s="14">
         <v>1</v>
@@ -4464,7 +4554,7 @@
     </row>
     <row r="156" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B156" s="11">
         <v>1</v>
@@ -4475,7 +4565,7 @@
     </row>
     <row r="157" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B157" s="14">
         <v>1</v>
@@ -4486,7 +4576,7 @@
     </row>
     <row r="158" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B158" s="11">
         <v>1</v>
@@ -4497,7 +4587,7 @@
     </row>
     <row r="159" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B159" s="14">
         <v>0</v>
@@ -4508,7 +4598,7 @@
     </row>
     <row r="160" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B160" s="11">
         <v>1</v>
@@ -4519,7 +4609,7 @@
     </row>
     <row r="161" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B161" s="14">
         <v>0</v>
@@ -4530,7 +4620,7 @@
     </row>
     <row r="162" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B162" s="11">
         <v>1</v>
@@ -4541,7 +4631,7 @@
     </row>
     <row r="163" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B163" s="14">
         <v>1</v>
@@ -4552,7 +4642,7 @@
     </row>
     <row r="164" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B164" s="11">
         <v>1</v>
@@ -4563,7 +4653,7 @@
     </row>
     <row r="165" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B165" s="14">
         <v>0</v>
@@ -4574,7 +4664,7 @@
     </row>
     <row r="166" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B166" s="11">
         <v>1</v>
@@ -4585,7 +4675,7 @@
     </row>
     <row r="167" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B167" s="14">
         <v>0</v>
@@ -4596,7 +4686,7 @@
     </row>
     <row r="168" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B168" s="11">
         <v>1</v>
@@ -4607,7 +4697,7 @@
     </row>
     <row r="169" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B169" s="14">
         <v>1</v>
@@ -4618,7 +4708,7 @@
     </row>
     <row r="170" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B170" s="11">
         <v>1</v>
@@ -4629,7 +4719,7 @@
     </row>
     <row r="171" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B171" s="14">
         <v>1</v>
@@ -4640,7 +4730,7 @@
     </row>
     <row r="172" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B172" s="11">
         <v>0</v>
@@ -4651,7 +4741,7 @@
     </row>
     <row r="173" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B173" s="14">
         <v>1</v>
@@ -4662,7 +4752,7 @@
     </row>
     <row r="174" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B174" s="11">
         <v>1</v>
@@ -4673,7 +4763,7 @@
     </row>
     <row r="175" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B175" s="14">
         <v>1</v>
@@ -4684,7 +4774,7 @@
     </row>
     <row r="176" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B176" s="11">
         <v>1</v>
@@ -4695,7 +4785,7 @@
     </row>
     <row r="177" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B177" s="14">
         <v>0</v>
@@ -4706,7 +4796,7 @@
     </row>
     <row r="178" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B178" s="11">
         <v>1</v>
@@ -4717,7 +4807,7 @@
     </row>
     <row r="179" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B179" s="14">
         <v>1</v>
@@ -4728,7 +4818,7 @@
     </row>
     <row r="180" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B180" s="11">
         <v>0</v>
@@ -4739,7 +4829,7 @@
     </row>
     <row r="181" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B181" s="14">
         <v>1</v>
@@ -4750,7 +4840,7 @@
     </row>
     <row r="182" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B182" s="11">
         <v>1</v>
@@ -4761,7 +4851,7 @@
     </row>
     <row r="183" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B183" s="14">
         <v>0</v>
@@ -4772,7 +4862,7 @@
     </row>
     <row r="184" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B184" s="11">
         <v>0</v>
@@ -4783,7 +4873,7 @@
     </row>
     <row r="185" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B185" s="14">
         <v>1</v>
@@ -4794,7 +4884,7 @@
     </row>
     <row r="186" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B186" s="11">
         <v>1</v>
@@ -4805,7 +4895,7 @@
     </row>
     <row r="187" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B187" s="14">
         <v>1</v>
@@ -4816,7 +4906,7 @@
     </row>
     <row r="188" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B188" s="11">
         <v>0</v>
@@ -4827,7 +4917,7 @@
     </row>
     <row r="189" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B189" s="14">
         <v>0</v>
@@ -4838,7 +4928,7 @@
     </row>
     <row r="190" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B190" s="11">
         <v>0</v>
@@ -4849,7 +4939,7 @@
     </row>
     <row r="191" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B191" s="14">
         <v>1</v>
@@ -4860,7 +4950,7 @@
     </row>
     <row r="192" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B192" s="11">
         <v>1</v>
@@ -4871,7 +4961,7 @@
     </row>
     <row r="193" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B193" s="14">
         <v>0</v>
@@ -4882,7 +4972,7 @@
     </row>
     <row r="194" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B194" s="11">
         <v>0</v>
@@ -4893,7 +4983,7 @@
     </row>
     <row r="195" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B195" s="14">
         <v>0</v>
@@ -4904,7 +4994,7 @@
     </row>
     <row r="196" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B196" s="11">
         <v>1</v>
@@ -4915,7 +5005,7 @@
     </row>
     <row r="197" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B197" s="14">
         <v>0</v>
@@ -4926,7 +5016,7 @@
     </row>
     <row r="198" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B198" s="11">
         <v>0</v>
@@ -4937,7 +5027,7 @@
     </row>
     <row r="199" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B199" s="14">
         <v>1</v>
@@ -4948,7 +5038,7 @@
     </row>
     <row r="200" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B200" s="11">
         <v>1</v>
@@ -4959,7 +5049,7 @@
     </row>
     <row r="201" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B201" s="14">
         <v>1</v>
@@ -4970,7 +5060,7 @@
     </row>
     <row r="202" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B202" s="11">
         <v>1</v>
@@ -4981,7 +5071,7 @@
     </row>
     <row r="203" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B203" s="14">
         <v>1</v>
@@ -4992,7 +5082,7 @@
     </row>
     <row r="204" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B204" s="11">
         <v>0</v>
@@ -5003,7 +5093,7 @@
     </row>
     <row r="205" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B205" s="14">
         <v>0</v>
@@ -5014,7 +5104,7 @@
     </row>
     <row r="206" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B206" s="11">
         <v>1</v>
@@ -5025,7 +5115,7 @@
     </row>
     <row r="207" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B207" s="14">
         <v>0</v>
@@ -5036,7 +5126,7 @@
     </row>
     <row r="208" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B208" s="11">
         <v>0</v>
@@ -5047,7 +5137,7 @@
     </row>
     <row r="209" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B209" s="14">
         <v>1</v>
@@ -5058,7 +5148,7 @@
     </row>
     <row r="210" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B210" s="11">
         <v>1</v>
@@ -5069,7 +5159,7 @@
     </row>
     <row r="211" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B211" s="14">
         <v>1</v>
@@ -5080,7 +5170,7 @@
     </row>
     <row r="212" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B212" s="11">
         <v>0</v>
@@ -5091,7 +5181,7 @@
     </row>
     <row r="213" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B213" s="14">
         <v>0</v>
@@ -5102,7 +5192,7 @@
     </row>
     <row r="214" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B214" s="11">
         <v>1</v>
@@ -5113,7 +5203,7 @@
     </row>
     <row r="215" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B215" s="14">
         <v>1</v>
@@ -5124,7 +5214,7 @@
     </row>
     <row r="216" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B216" s="11">
         <v>0</v>
@@ -5146,7 +5236,7 @@
     </row>
     <row r="218" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B218" s="11">
         <v>1</v>
@@ -5157,7 +5247,7 @@
     </row>
     <row r="219" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B219" s="14">
         <v>0</v>
@@ -5168,7 +5258,7 @@
     </row>
     <row r="220" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B220" s="11">
         <v>1</v>
@@ -5179,7 +5269,7 @@
     </row>
     <row r="221" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B221" s="14">
         <v>1</v>
@@ -5190,7 +5280,7 @@
     </row>
     <row r="222" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B222" s="11">
         <v>1</v>
@@ -5201,7 +5291,7 @@
     </row>
     <row r="223" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B223" s="14">
         <v>1</v>
@@ -5212,7 +5302,7 @@
     </row>
     <row r="224" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B224" s="11">
         <v>1</v>
@@ -5223,7 +5313,7 @@
     </row>
     <row r="225" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B225" s="14">
         <v>1</v>
@@ -5234,7 +5324,7 @@
     </row>
     <row r="226" spans="1:5" ht="133" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B226" s="11">
         <v>0</v>
@@ -5245,7 +5335,7 @@
     </row>
     <row r="227" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B227" s="14">
         <v>0</v>
@@ -5256,7 +5346,7 @@
     </row>
     <row r="228" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B228" s="11">
         <v>0</v>
@@ -5267,7 +5357,7 @@
     </row>
     <row r="229" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B229" s="14">
         <v>0</v>
@@ -5278,7 +5368,7 @@
     </row>
     <row r="230" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B230" s="11">
         <v>1</v>
@@ -5289,7 +5379,7 @@
     </row>
     <row r="231" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B231" s="14">
         <v>0</v>
@@ -5300,7 +5390,7 @@
     </row>
     <row r="232" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B232" s="11">
         <v>1</v>
@@ -5311,7 +5401,7 @@
     </row>
     <row r="233" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B233" s="14">
         <v>0</v>
@@ -5322,7 +5412,7 @@
     </row>
     <row r="234" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B234" s="11">
         <v>1</v>
@@ -5333,7 +5423,7 @@
     </row>
     <row r="235" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B235" s="14">
         <v>1</v>
@@ -5344,7 +5434,7 @@
     </row>
     <row r="236" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B236" s="11">
         <v>0</v>
@@ -5355,7 +5445,7 @@
     </row>
     <row r="237" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B237" s="14">
         <v>1</v>
@@ -5366,7 +5456,7 @@
     </row>
     <row r="238" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B238" s="11">
         <v>1</v>
@@ -5377,7 +5467,7 @@
     </row>
     <row r="239" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B239" s="14">
         <v>1</v>
@@ -5388,7 +5478,7 @@
     </row>
     <row r="240" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B240" s="11">
         <v>0</v>
@@ -5399,7 +5489,7 @@
     </row>
     <row r="241" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B241" s="14">
         <v>0</v>
@@ -5410,7 +5500,7 @@
     </row>
     <row r="242" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B242" s="11">
         <v>1</v>
@@ -5421,7 +5511,7 @@
     </row>
     <row r="243" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B243" s="14">
         <v>0</v>
@@ -5443,7 +5533,7 @@
     </row>
     <row r="245" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B245" s="14">
         <v>0</v>
@@ -5454,7 +5544,7 @@
     </row>
     <row r="246" spans="1:5" ht="213" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B246" s="11">
         <v>0</v>
@@ -5465,7 +5555,7 @@
     </row>
     <row r="247" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B247" s="14">
         <v>1</v>
@@ -5476,7 +5566,7 @@
     </row>
     <row r="248" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B248" s="11">
         <v>0</v>
@@ -5487,7 +5577,7 @@
     </row>
     <row r="249" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B249" s="14">
         <v>0</v>
@@ -5498,7 +5588,7 @@
     </row>
     <row r="250" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B250" s="11">
         <v>1</v>
@@ -5509,7 +5599,7 @@
     </row>
     <row r="251" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B251" s="14">
         <v>1</v>
@@ -5520,7 +5610,7 @@
     </row>
     <row r="252" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B252" s="11">
         <v>0</v>
@@ -5531,7 +5621,7 @@
     </row>
     <row r="253" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B253" s="14">
         <v>1</v>
@@ -5542,7 +5632,7 @@
     </row>
     <row r="254" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B254" s="11">
         <v>0</v>
@@ -5553,7 +5643,7 @@
     </row>
     <row r="255" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B255" s="14">
         <v>1</v>
@@ -5564,7 +5654,7 @@
     </row>
     <row r="256" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B256" s="11">
         <v>0</v>
@@ -5575,7 +5665,7 @@
     </row>
     <row r="257" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B257" s="14">
         <v>1</v>
@@ -5586,7 +5676,7 @@
     </row>
     <row r="258" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B258" s="11">
         <v>0</v>
@@ -5597,7 +5687,7 @@
     </row>
     <row r="259" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B259" s="14">
         <v>1</v>
@@ -5608,7 +5698,7 @@
     </row>
     <row r="260" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B260" s="11">
         <v>1</v>
@@ -5619,7 +5709,7 @@
     </row>
     <row r="261" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B261" s="14">
         <v>1</v>
@@ -5630,7 +5720,7 @@
     </row>
     <row r="262" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B262" s="11">
         <v>1</v>
@@ -5641,7 +5731,7 @@
     </row>
     <row r="263" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B263" s="14">
         <v>0</v>
@@ -5652,7 +5742,7 @@
     </row>
     <row r="264" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B264" s="11">
         <v>0</v>
@@ -5663,7 +5753,7 @@
     </row>
     <row r="265" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B265" s="14">
         <v>1</v>
@@ -5674,7 +5764,7 @@
     </row>
     <row r="266" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B266" s="11">
         <v>1</v>
@@ -5685,7 +5775,7 @@
     </row>
     <row r="267" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B267" s="14">
         <v>1</v>
@@ -5696,7 +5786,7 @@
     </row>
     <row r="268" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B268" s="11">
         <v>0</v>
@@ -5707,7 +5797,7 @@
     </row>
     <row r="269" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B269" s="14">
         <v>1</v>
@@ -5718,7 +5808,7 @@
     </row>
     <row r="270" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B270" s="11">
         <v>1</v>
@@ -5729,7 +5819,7 @@
     </row>
     <row r="271" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B271" s="14">
         <v>0</v>
@@ -5740,7 +5830,7 @@
     </row>
     <row r="272" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B272" s="11">
         <v>0</v>
@@ -5751,7 +5841,7 @@
     </row>
     <row r="273" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B273" s="14">
         <v>1</v>
@@ -5762,7 +5852,7 @@
     </row>
     <row r="274" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B274" s="11">
         <v>0</v>
@@ -5773,7 +5863,7 @@
     </row>
     <row r="275" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B275" s="14">
         <v>0</v>
@@ -5784,7 +5874,7 @@
     </row>
     <row r="276" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B276" s="11">
         <v>1</v>
@@ -5795,7 +5885,7 @@
     </row>
     <row r="277" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B277" s="14">
         <v>0</v>
@@ -5817,7 +5907,7 @@
     </row>
     <row r="279" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B279" s="14">
         <v>1</v>
@@ -5828,7 +5918,7 @@
     </row>
     <row r="280" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B280" s="11">
         <v>0</v>
@@ -5839,7 +5929,7 @@
     </row>
     <row r="281" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B281" s="14">
         <v>1</v>
@@ -5850,7 +5940,7 @@
     </row>
     <row r="282" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B282" s="11">
         <v>0</v>
@@ -5861,7 +5951,7 @@
     </row>
     <row r="283" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B283" s="14">
         <v>0</v>
@@ -5872,7 +5962,7 @@
     </row>
     <row r="284" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B284" s="11">
         <v>1</v>
@@ -5883,7 +5973,7 @@
     </row>
     <row r="285" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B285" s="14">
         <v>1</v>
@@ -5894,7 +5984,7 @@
     </row>
     <row r="286" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B286" s="11">
         <v>1</v>
@@ -5905,7 +5995,7 @@
     </row>
     <row r="287" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B287" s="14">
         <v>1</v>
@@ -5916,7 +6006,7 @@
     </row>
     <row r="288" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B288" s="11">
         <v>0</v>
@@ -5927,7 +6017,7 @@
     </row>
     <row r="289" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B289" s="14">
         <v>1</v>
@@ -5938,7 +6028,7 @@
     </row>
     <row r="290" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B290" s="11">
         <v>1</v>
@@ -5949,7 +6039,7 @@
     </row>
     <row r="291" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B291" s="14">
         <v>1</v>
@@ -5960,7 +6050,7 @@
     </row>
     <row r="292" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B292" s="11">
         <v>1</v>
@@ -5971,7 +6061,7 @@
     </row>
     <row r="293" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B293" s="14">
         <v>0</v>
@@ -5982,7 +6072,7 @@
     </row>
     <row r="294" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B294" s="11">
         <v>0</v>
@@ -5993,7 +6083,7 @@
     </row>
     <row r="295" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B295" s="14">
         <v>1</v>
@@ -6004,7 +6094,7 @@
     </row>
     <row r="296" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B296" s="11">
         <v>1</v>
@@ -6015,7 +6105,7 @@
     </row>
     <row r="297" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B297" s="14">
         <v>1</v>
@@ -6026,7 +6116,7 @@
     </row>
     <row r="298" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B298" s="11">
         <v>0</v>
@@ -6037,7 +6127,7 @@
     </row>
     <row r="299" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B299" s="14">
         <v>0</v>
@@ -6048,7 +6138,7 @@
     </row>
     <row r="300" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B300" s="11">
         <v>0</v>
@@ -6059,7 +6149,7 @@
     </row>
     <row r="301" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B301" s="14">
         <v>1</v>
@@ -6070,18 +6160,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Button 1">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!reclassificar">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -6108,11 +6198,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:IV201"/>
+  <dimension ref="A1:IV301"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6124,9 +6216,9 @@
   <sheetData>
     <row r="1" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -6137,7 +6229,7 @@
     </row>
     <row r="2" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -6152,37 +6244,33 @@
     </row>
     <row r="3" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="14">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="D3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B5" s="14">
         <v>0</v>
@@ -6193,7 +6281,7 @@
     </row>
     <row r="6" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -6204,7 +6292,7 @@
     </row>
     <row r="7" spans="1:5" ht="197" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="14">
         <v>1</v>
@@ -6215,7 +6303,7 @@
     </row>
     <row r="8" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -6226,7 +6314,7 @@
     </row>
     <row r="9" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="14">
         <v>1</v>
@@ -6237,10 +6325,10 @@
     </row>
     <row r="10" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -6248,7 +6336,7 @@
     </row>
     <row r="11" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B11" s="14">
         <v>0</v>
@@ -6259,7 +6347,7 @@
     </row>
     <row r="12" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
@@ -6270,10 +6358,10 @@
     </row>
     <row r="13" spans="1:5" ht="149" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B13" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -6281,7 +6369,7 @@
     </row>
     <row r="14" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14" s="11">
         <v>0</v>
@@ -6292,7 +6380,7 @@
     </row>
     <row r="15" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B15" s="14">
         <v>0</v>
@@ -6303,7 +6391,7 @@
     </row>
     <row r="16" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -6314,7 +6402,7 @@
     </row>
     <row r="17" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" s="14">
         <v>0</v>
@@ -6325,7 +6413,7 @@
     </row>
     <row r="18" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18" s="11">
         <v>0</v>
@@ -6336,7 +6424,7 @@
     </row>
     <row r="19" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="14">
         <v>0</v>
@@ -6347,7 +6435,7 @@
     </row>
     <row r="20" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B20" s="11">
         <v>0</v>
@@ -6358,10 +6446,10 @@
     </row>
     <row r="21" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B21" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -6369,7 +6457,7 @@
     </row>
     <row r="22" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" s="11">
         <v>0</v>
@@ -6380,10 +6468,10 @@
     </row>
     <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B23" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -6391,7 +6479,7 @@
     </row>
     <row r="24" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="11">
         <v>0</v>
@@ -6402,7 +6490,7 @@
     </row>
     <row r="25" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B25" s="14">
         <v>0</v>
@@ -6413,7 +6501,7 @@
     </row>
     <row r="26" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B26" s="11">
         <v>0</v>
@@ -6424,7 +6512,7 @@
     </row>
     <row r="27" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" s="14">
         <v>0</v>
@@ -6435,10 +6523,10 @@
     </row>
     <row r="28" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B28" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -6446,7 +6534,7 @@
     </row>
     <row r="29" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B29" s="14">
         <v>0</v>
@@ -6457,7 +6545,7 @@
     </row>
     <row r="30" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B30" s="11">
         <v>0</v>
@@ -6468,10 +6556,10 @@
     </row>
     <row r="31" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -6479,7 +6567,7 @@
     </row>
     <row r="32" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B32" s="11">
         <v>0</v>
@@ -6490,7 +6578,7 @@
     </row>
     <row r="33" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B33" s="14">
         <v>0</v>
@@ -6501,7 +6589,7 @@
     </row>
     <row r="34" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B34" s="11">
         <v>1</v>
@@ -6512,10 +6600,10 @@
     </row>
     <row r="35" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B35" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -6523,10 +6611,10 @@
     </row>
     <row r="36" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B36" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -6534,7 +6622,7 @@
     </row>
     <row r="37" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="14">
         <v>0</v>
@@ -6545,7 +6633,7 @@
     </row>
     <row r="38" spans="1:5" ht="389" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B38" s="11">
         <v>0</v>
@@ -6556,7 +6644,7 @@
     </row>
     <row r="39" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B39" s="14">
         <v>0</v>
@@ -6567,10 +6655,10 @@
     </row>
     <row r="40" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B40" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -6578,10 +6666,10 @@
     </row>
     <row r="41" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B41" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -6589,7 +6677,7 @@
     </row>
     <row r="42" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="11">
         <v>1</v>
@@ -6600,7 +6688,7 @@
     </row>
     <row r="43" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="14">
         <v>1</v>
@@ -6611,7 +6699,7 @@
     </row>
     <row r="44" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B44" s="11">
         <v>1</v>
@@ -6622,7 +6710,7 @@
     </row>
     <row r="45" spans="1:5" ht="213" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B45" s="14">
         <v>0</v>
@@ -6633,10 +6721,10 @@
     </row>
     <row r="46" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -6644,10 +6732,10 @@
     </row>
     <row r="47" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B47" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -6655,10 +6743,10 @@
     </row>
     <row r="48" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B48" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -6666,10 +6754,10 @@
     </row>
     <row r="49" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B49" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -6677,7 +6765,7 @@
     </row>
     <row r="50" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50" s="11">
         <v>1</v>
@@ -6688,7 +6776,7 @@
     </row>
     <row r="51" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="14">
         <v>0</v>
@@ -6699,7 +6787,7 @@
     </row>
     <row r="52" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B52" s="11">
         <v>0</v>
@@ -6710,7 +6798,7 @@
     </row>
     <row r="53" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" s="14">
         <v>0</v>
@@ -6721,10 +6809,10 @@
     </row>
     <row r="54" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B54" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -6732,7 +6820,7 @@
     </row>
     <row r="55" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B55" s="14">
         <v>0</v>
@@ -6743,7 +6831,7 @@
     </row>
     <row r="56" spans="1:5" ht="197" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B56" s="11">
         <v>0</v>
@@ -6754,10 +6842,10 @@
     </row>
     <row r="57" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B57" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -6765,10 +6853,10 @@
     </row>
     <row r="58" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B58" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -6776,7 +6864,7 @@
     </row>
     <row r="59" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B59" s="14">
         <v>1</v>
@@ -6787,10 +6875,10 @@
     </row>
     <row r="60" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B60" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -6798,10 +6886,10 @@
     </row>
     <row r="61" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B61" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -6809,10 +6897,10 @@
     </row>
     <row r="62" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B62" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -6820,7 +6908,7 @@
     </row>
     <row r="63" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B63" s="14">
         <v>1</v>
@@ -6831,7 +6919,7 @@
     </row>
     <row r="64" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B64" s="11">
         <v>1</v>
@@ -6842,10 +6930,10 @@
     </row>
     <row r="65" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B65" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -6853,7 +6941,7 @@
     </row>
     <row r="66" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B66" s="11">
         <v>0</v>
@@ -6864,10 +6952,10 @@
     </row>
     <row r="67" spans="1:5" ht="181" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B67" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -6875,7 +6963,7 @@
     </row>
     <row r="68" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B68" s="11">
         <v>1</v>
@@ -6886,10 +6974,10 @@
     </row>
     <row r="69" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B69" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -6897,10 +6985,10 @@
     </row>
     <row r="70" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B70" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -6908,10 +6996,10 @@
     </row>
     <row r="71" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B71" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -6919,7 +7007,7 @@
     </row>
     <row r="72" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72" s="11">
         <v>0</v>
@@ -6930,10 +7018,10 @@
     </row>
     <row r="73" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B73" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -6941,10 +7029,10 @@
     </row>
     <row r="74" spans="1:5" ht="184" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B74" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -6952,7 +7040,7 @@
     </row>
     <row r="75" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B75" s="14">
         <v>1</v>
@@ -6963,7 +7051,7 @@
     </row>
     <row r="76" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76" s="11">
         <v>0</v>
@@ -6974,10 +7062,10 @@
     </row>
     <row r="77" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B77" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -6985,10 +7073,10 @@
     </row>
     <row r="78" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B78" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
@@ -6996,7 +7084,7 @@
     </row>
     <row r="79" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B79" s="14">
         <v>0</v>
@@ -7007,7 +7095,7 @@
     </row>
     <row r="80" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80" s="11">
         <v>0</v>
@@ -7018,10 +7106,10 @@
     </row>
     <row r="81" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B81" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -7029,7 +7117,7 @@
     </row>
     <row r="82" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B82" s="11">
         <v>0</v>
@@ -7040,10 +7128,10 @@
     </row>
     <row r="83" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B83" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -7051,10 +7139,10 @@
     </row>
     <row r="84" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B84" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
@@ -7062,7 +7150,7 @@
     </row>
     <row r="85" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85" s="14">
         <v>0</v>
@@ -7073,7 +7161,7 @@
     </row>
     <row r="86" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B86" s="11">
         <v>0</v>
@@ -7084,7 +7172,7 @@
     </row>
     <row r="87" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B87" s="14">
         <v>0</v>
@@ -7095,7 +7183,7 @@
     </row>
     <row r="88" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B88" s="11">
         <v>0</v>
@@ -7106,7 +7194,7 @@
     </row>
     <row r="89" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B89" s="14">
         <v>1</v>
@@ -7117,7 +7205,7 @@
     </row>
     <row r="90" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B90" s="11">
         <v>1</v>
@@ -7128,10 +7216,10 @@
     </row>
     <row r="91" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B91" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
@@ -7139,7 +7227,7 @@
     </row>
     <row r="92" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B92" s="11">
         <v>0</v>
@@ -7150,7 +7238,7 @@
     </row>
     <row r="93" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" s="14">
         <v>0</v>
@@ -7161,10 +7249,10 @@
     </row>
     <row r="94" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B94" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
@@ -7172,7 +7260,7 @@
     </row>
     <row r="95" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B95" s="14">
         <v>1</v>
@@ -7183,7 +7271,7 @@
     </row>
     <row r="96" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B96" s="11">
         <v>1</v>
@@ -7194,7 +7282,7 @@
     </row>
     <row r="97" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97" s="14">
         <v>0</v>
@@ -7205,7 +7293,7 @@
     </row>
     <row r="98" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B98" s="11">
         <v>0</v>
@@ -7216,7 +7304,7 @@
     </row>
     <row r="99" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B99" s="14">
         <v>0</v>
@@ -7227,7 +7315,7 @@
     </row>
     <row r="100" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B100" s="11">
         <v>0</v>
@@ -7238,7 +7326,7 @@
     </row>
     <row r="101" spans="1:5" ht="140" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B101" s="14">
         <v>0</v>
@@ -7249,10 +7337,10 @@
     </row>
     <row r="102" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B102" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
@@ -7260,7 +7348,7 @@
     </row>
     <row r="103" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B103" s="14">
         <v>0</v>
@@ -7271,7 +7359,7 @@
     </row>
     <row r="104" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B104" s="11">
         <v>0</v>
@@ -7282,10 +7370,10 @@
     </row>
     <row r="105" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B105" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="18"/>
@@ -7293,7 +7381,7 @@
     </row>
     <row r="106" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B106" s="11">
         <v>0</v>
@@ -7304,10 +7392,10 @@
     </row>
     <row r="107" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B107" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
@@ -7315,7 +7403,7 @@
     </row>
     <row r="108" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108" s="11">
         <v>0</v>
@@ -7326,7 +7414,7 @@
     </row>
     <row r="109" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B109" s="14">
         <v>0</v>
@@ -7337,10 +7425,10 @@
     </row>
     <row r="110" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B110" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
@@ -7348,7 +7436,7 @@
     </row>
     <row r="111" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B111" s="14">
         <v>0</v>
@@ -7359,7 +7447,7 @@
     </row>
     <row r="112" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B112" s="11">
         <v>0</v>
@@ -7370,7 +7458,7 @@
     </row>
     <row r="113" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B113" s="14">
         <v>0</v>
@@ -7381,7 +7469,7 @@
     </row>
     <row r="114" spans="1:5" ht="133" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B114" s="11">
         <v>0</v>
@@ -7392,7 +7480,7 @@
     </row>
     <row r="115" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B115" s="14">
         <v>0</v>
@@ -7403,7 +7491,7 @@
     </row>
     <row r="116" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B116" s="11">
         <v>0</v>
@@ -7414,10 +7502,10 @@
     </row>
     <row r="117" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B117" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
@@ -7425,7 +7513,7 @@
     </row>
     <row r="118" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B118" s="11">
         <v>0</v>
@@ -7436,7 +7524,7 @@
     </row>
     <row r="119" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B119" s="14">
         <v>0</v>
@@ -7447,10 +7535,10 @@
     </row>
     <row r="120" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B120" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
@@ -7458,10 +7546,10 @@
     </row>
     <row r="121" spans="1:5" ht="133" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B121" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
@@ -7469,10 +7557,10 @@
     </row>
     <row r="122" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B122" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
@@ -7480,7 +7568,7 @@
     </row>
     <row r="123" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B123" s="14">
         <v>0</v>
@@ -7491,10 +7579,10 @@
     </row>
     <row r="124" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B124" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
@@ -7502,10 +7590,10 @@
     </row>
     <row r="125" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B125" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
@@ -7513,10 +7601,10 @@
     </row>
     <row r="126" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B126" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
@@ -7524,7 +7612,7 @@
     </row>
     <row r="127" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B127" s="14">
         <v>0</v>
@@ -7535,10 +7623,10 @@
     </row>
     <row r="128" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B128" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
@@ -7546,7 +7634,7 @@
     </row>
     <row r="129" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B129" s="14">
         <v>0</v>
@@ -7557,10 +7645,10 @@
     </row>
     <row r="130" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B130" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
@@ -7568,7 +7656,7 @@
     </row>
     <row r="131" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B131" s="14">
         <v>0</v>
@@ -7579,7 +7667,7 @@
     </row>
     <row r="132" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B132" s="11">
         <v>0</v>
@@ -7590,7 +7678,7 @@
     </row>
     <row r="133" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B133" s="14">
         <v>0</v>
@@ -7601,7 +7689,7 @@
     </row>
     <row r="134" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B134" s="11">
         <v>0</v>
@@ -7612,10 +7700,10 @@
     </row>
     <row r="135" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B135" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
@@ -7623,7 +7711,7 @@
     </row>
     <row r="136" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B136" s="11">
         <v>1</v>
@@ -7634,10 +7722,10 @@
     </row>
     <row r="137" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B137" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
@@ -7645,10 +7733,10 @@
     </row>
     <row r="138" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B138" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
@@ -7656,7 +7744,7 @@
     </row>
     <row r="139" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B139" s="14">
         <v>0</v>
@@ -7667,7 +7755,7 @@
     </row>
     <row r="140" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B140" s="11">
         <v>0</v>
@@ -7678,10 +7766,10 @@
     </row>
     <row r="141" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B141" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
@@ -7689,10 +7777,10 @@
     </row>
     <row r="142" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B142" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
@@ -7700,10 +7788,10 @@
     </row>
     <row r="143" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B143" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
@@ -7711,7 +7799,7 @@
     </row>
     <row r="144" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B144" s="11">
         <v>1</v>
@@ -7722,10 +7810,10 @@
     </row>
     <row r="145" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B145" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
@@ -7733,7 +7821,7 @@
     </row>
     <row r="146" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B146" s="11">
         <v>0</v>
@@ -7744,10 +7832,10 @@
     </row>
     <row r="147" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B147" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
@@ -7755,7 +7843,7 @@
     </row>
     <row r="148" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B148" s="11">
         <v>0</v>
@@ -7766,7 +7854,7 @@
     </row>
     <row r="149" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B149" s="14">
         <v>1</v>
@@ -7777,7 +7865,7 @@
     </row>
     <row r="150" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B150" s="11">
         <v>0</v>
@@ -7788,7 +7876,7 @@
     </row>
     <row r="151" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B151" s="14">
         <v>0</v>
@@ -7799,7 +7887,7 @@
     </row>
     <row r="152" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B152" s="11">
         <v>0</v>
@@ -7810,7 +7898,7 @@
     </row>
     <row r="153" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B153" s="14">
         <v>0</v>
@@ -7821,7 +7909,7 @@
     </row>
     <row r="154" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B154" s="11">
         <v>1</v>
@@ -7832,10 +7920,10 @@
     </row>
     <row r="155" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B155" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
@@ -7843,7 +7931,7 @@
     </row>
     <row r="156" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B156" s="11">
         <v>0</v>
@@ -7854,10 +7942,10 @@
     </row>
     <row r="157" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B157" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="18"/>
@@ -7865,10 +7953,10 @@
     </row>
     <row r="158" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B158" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
@@ -7876,7 +7964,7 @@
     </row>
     <row r="159" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B159" s="14">
         <v>0</v>
@@ -7887,7 +7975,7 @@
     </row>
     <row r="160" spans="1:5" ht="124" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B160" s="11">
         <v>1</v>
@@ -7898,10 +7986,10 @@
     </row>
     <row r="161" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B161" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
@@ -7909,7 +7997,7 @@
     </row>
     <row r="162" spans="1:5" ht="149" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B162" s="11">
         <v>1</v>
@@ -7920,7 +8008,7 @@
     </row>
     <row r="163" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B163" s="14">
         <v>0</v>
@@ -7931,7 +8019,7 @@
     </row>
     <row r="164" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B164" s="11">
         <v>1</v>
@@ -7942,10 +8030,10 @@
     </row>
     <row r="165" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B165" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" s="18"/>
       <c r="D165" s="18"/>
@@ -7953,7 +8041,7 @@
     </row>
     <row r="166" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B166" s="11">
         <v>0</v>
@@ -7964,7 +8052,7 @@
     </row>
     <row r="167" spans="1:5" ht="124" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B167" s="14">
         <v>1</v>
@@ -7975,7 +8063,7 @@
     </row>
     <row r="168" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B168" s="11">
         <v>0</v>
@@ -7986,7 +8074,7 @@
     </row>
     <row r="169" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B169" s="14">
         <v>0</v>
@@ -7997,7 +8085,7 @@
     </row>
     <row r="170" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B170" s="11">
         <v>0</v>
@@ -8008,10 +8096,10 @@
     </row>
     <row r="171" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B171" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
@@ -8019,7 +8107,7 @@
     </row>
     <row r="172" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B172" s="11">
         <v>0</v>
@@ -8030,7 +8118,7 @@
     </row>
     <row r="173" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B173" s="14">
         <v>0</v>
@@ -8041,7 +8129,7 @@
     </row>
     <row r="174" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B174" s="11">
         <v>1</v>
@@ -8052,7 +8140,7 @@
     </row>
     <row r="175" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B175" s="14">
         <v>0</v>
@@ -8063,7 +8151,7 @@
     </row>
     <row r="176" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B176" s="11">
         <v>0</v>
@@ -8074,7 +8162,7 @@
     </row>
     <row r="177" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B177" s="14">
         <v>0</v>
@@ -8085,7 +8173,7 @@
     </row>
     <row r="178" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B178" s="11">
         <v>1</v>
@@ -8096,7 +8184,7 @@
     </row>
     <row r="179" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B179" s="14">
         <v>0</v>
@@ -8107,10 +8195,10 @@
     </row>
     <row r="180" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B180" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
@@ -8118,7 +8206,7 @@
     </row>
     <row r="181" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B181" s="14">
         <v>0</v>
@@ -8129,7 +8217,7 @@
     </row>
     <row r="182" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B182" s="11">
         <v>1</v>
@@ -8140,7 +8228,7 @@
     </row>
     <row r="183" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B183" s="14">
         <v>0</v>
@@ -8151,7 +8239,7 @@
     </row>
     <row r="184" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B184" s="11">
         <v>0</v>
@@ -8162,7 +8250,7 @@
     </row>
     <row r="185" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B185" s="14">
         <v>1</v>
@@ -8173,7 +8261,7 @@
     </row>
     <row r="186" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B186" s="11">
         <v>0</v>
@@ -8184,7 +8272,7 @@
     </row>
     <row r="187" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B187" s="14">
         <v>1</v>
@@ -8195,10 +8283,10 @@
     </row>
     <row r="188" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B188" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188" s="19"/>
       <c r="D188" s="19"/>
@@ -8206,7 +8294,7 @@
     </row>
     <row r="189" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B189" s="14">
         <v>1</v>
@@ -8217,7 +8305,7 @@
     </row>
     <row r="190" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B190" s="11">
         <v>0</v>
@@ -8228,10 +8316,10 @@
     </row>
     <row r="191" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B191" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="18"/>
@@ -8239,10 +8327,10 @@
     </row>
     <row r="192" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B192" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192" s="19"/>
       <c r="D192" s="19"/>
@@ -8250,7 +8338,7 @@
     </row>
     <row r="193" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B193" s="14">
         <v>1</v>
@@ -8261,7 +8349,7 @@
     </row>
     <row r="194" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B194" s="11">
         <v>1</v>
@@ -8272,7 +8360,7 @@
     </row>
     <row r="195" spans="1:5" ht="133" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B195" s="14">
         <v>0</v>
@@ -8283,7 +8371,7 @@
     </row>
     <row r="196" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B196" s="11">
         <v>0</v>
@@ -8294,7 +8382,7 @@
     </row>
     <row r="197" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B197" s="14">
         <v>1</v>
@@ -8305,7 +8393,7 @@
     </row>
     <row r="198" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B198" s="11">
         <v>1</v>
@@ -8316,7 +8404,7 @@
     </row>
     <row r="199" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B199" s="14">
         <v>0</v>
@@ -8327,10 +8415,10 @@
     </row>
     <row r="200" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B200" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C200" s="19"/>
       <c r="D200" s="19"/>
@@ -8338,7 +8426,7 @@
     </row>
     <row r="201" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B201" s="14">
         <v>0</v>
@@ -8346,6 +8434,506 @@
       <c r="C201" s="18"/>
       <c r="D201" s="18"/>
       <c r="E201" s="18"/>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B202" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B203" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B204" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B205" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B206" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B207" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B208" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B209" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B210" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B211" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B212" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B213" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B214" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B215" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B216" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B217" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B218" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B219" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B220" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B221" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B222" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B223" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B224" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B225" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B226" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B227" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B228" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B229" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B230" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B231" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B232" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B233" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B234" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B235" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B236" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B237" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B238" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B239" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B240" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B242" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B243" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B244" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B245" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B246" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B247" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B248" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B249" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B250" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B251" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B252" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B253" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B254" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B255" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B256" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B257" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B258" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B259" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B260" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B261" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B262" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B263" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B264" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B265" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B266" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B267" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B268" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B269" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B270" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B271" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B272" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B273" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B274" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B275" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B276" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B277" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B278" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B279" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B280" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B281" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B282" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B283" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B284" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B285" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B286" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B287" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B288" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B289" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B290" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B291" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B292" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B293" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B294" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B295" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B296" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B297" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B298" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B299" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B300" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B301" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8353,5 +8941,35 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!reclassificar">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>571500</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>450850</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>1219200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/mcdonalds_tweets.xlsx
+++ b/mcdonalds_tweets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiza\OneDrive\Documentos\GitHub\Projeto-2---CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340E62A8-46BE-4C6D-B3DC-FE154D415653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B513F-9D2D-4AE0-A445-9F4FF9020F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1193,7 +1193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1228,6 +1228,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1338,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1389,14 +1396,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1573,25 +1583,25 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:rowOff>406400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>450850</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>1219200</xdr:rowOff>
+          <xdr:rowOff>622300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Button 1" hidden="1">
+            <xdr:cNvPr id="2050" name="Button 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
+                  <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D8BDBC-0E31-4FC3-BB51-D1D84C39031A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8625A56-D52E-4B90-8C99-8A77BFC1456F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1627,7 +1637,7 @@
                   <a:latin typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>Botão 1</a:t>
+                <a:t>Botão 2</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2759,11 +2769,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="7" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
@@ -6200,11 +6210,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:IV301"/>
+  <dimension ref="A1:IV201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6215,10 +6223,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -6249,7 +6257,7 @@
       <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>357</v>
       </c>
       <c r="D3" s="14">
@@ -8434,506 +8442,6 @@
       <c r="C201" s="18"/>
       <c r="D201" s="18"/>
       <c r="E201" s="18"/>
-    </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B278" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B280" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B281" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B283" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B284" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B286" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B287" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B288" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B289" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B290" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B291" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B292" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B293" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B294" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B295" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B297" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B298" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B299" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B300" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B301" s="17">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8948,20 +8456,20 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!reclassificar">
+            <control shapeId="2050" r:id="rId3" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!classificaçao">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>571500</xdr:rowOff>
+                    <xdr:rowOff>406400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>450850</xdr:colOff>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>1219200</xdr:rowOff>
+                    <xdr:rowOff>622300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
